--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ntf3-Ngfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ntf3-Ngfr.xlsx
@@ -91,7 +91,7 @@
     <t>Ngfr</t>
   </si>
   <si>
-    <t>Resolving-Mac</t>
+    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.174425666666667</v>
+        <v>1.679513333333333</v>
       </c>
       <c r="H2">
-        <v>18.523277</v>
+        <v>5.038539999999999</v>
       </c>
       <c r="I2">
-        <v>0.4796039576068858</v>
+        <v>0.376631045782902</v>
       </c>
       <c r="J2">
-        <v>0.5423873011998577</v>
+        <v>0.3928053077137587</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.175393</v>
+        <v>0.08108666666666665</v>
       </c>
       <c r="N2">
-        <v>0.526179</v>
+        <v>0.24326</v>
       </c>
       <c r="O2">
-        <v>0.01226364905153833</v>
+        <v>0.02056149724823249</v>
       </c>
       <c r="P2">
-        <v>0.01818959939974</v>
+        <v>0.02939174694341418</v>
       </c>
       <c r="Q2">
-        <v>1.082951040953667</v>
+        <v>0.1361861378222222</v>
       </c>
       <c r="R2">
-        <v>9.746559368583</v>
+        <v>1.2256752404</v>
       </c>
       <c r="S2">
-        <v>0.005881694619819714</v>
+        <v>0.007744098211464063</v>
       </c>
       <c r="T2">
-        <v>0.009865807728331531</v>
+        <v>0.01154523420235273</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.174425666666667</v>
+        <v>1.679513333333333</v>
       </c>
       <c r="H3">
-        <v>18.523277</v>
+        <v>5.038539999999999</v>
       </c>
       <c r="I3">
-        <v>0.4796039576068858</v>
+        <v>0.376631045782902</v>
       </c>
       <c r="J3">
-        <v>0.5423873011998577</v>
+        <v>0.3928053077137587</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>0.271551</v>
       </c>
       <c r="O3">
-        <v>0.006329036627448615</v>
+        <v>0.02295278771378271</v>
       </c>
       <c r="P3">
-        <v>0.009387307183674752</v>
+        <v>0.03280999043916413</v>
       </c>
       <c r="Q3">
-        <v>0.5588904880696667</v>
+        <v>0.1520245083933333</v>
       </c>
       <c r="R3">
-        <v>5.030014392627</v>
+        <v>1.36822057554</v>
       </c>
       <c r="S3">
-        <v>0.003035431014363293</v>
+        <v>0.008644732440274925</v>
       </c>
       <c r="T3">
-        <v>0.005091556208887385</v>
+        <v>0.01288793839054135</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.174425666666667</v>
+        <v>1.679513333333333</v>
       </c>
       <c r="H4">
-        <v>18.523277</v>
+        <v>5.038539999999999</v>
       </c>
       <c r="I4">
-        <v>0.4796039576068858</v>
+        <v>0.376631045782902</v>
       </c>
       <c r="J4">
-        <v>0.5423873011998577</v>
+        <v>0.3928053077137587</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>13.978117</v>
+        <v>0.2176356666666667</v>
       </c>
       <c r="N4">
-        <v>27.956234</v>
+        <v>0.652907</v>
       </c>
       <c r="O4">
-        <v>0.9773635281302092</v>
+        <v>0.05518681856388939</v>
       </c>
       <c r="P4">
-        <v>0.9664252985873458</v>
+        <v>0.07888710565478799</v>
       </c>
       <c r="Q4">
-        <v>86.30684437646967</v>
+        <v>0.3655220039755555</v>
       </c>
       <c r="R4">
-        <v>517.8410662588179</v>
+        <v>3.28969803578</v>
       </c>
       <c r="S4">
-        <v>0.4687474161118773</v>
+        <v>0.02078506918914893</v>
       </c>
       <c r="T4">
-        <v>0.5241768095120571</v>
+        <v>0.03098727381137679</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.174425666666667</v>
+        <v>1.679513333333333</v>
       </c>
       <c r="H5">
-        <v>18.523277</v>
+        <v>5.038539999999999</v>
       </c>
       <c r="I5">
-        <v>0.4796039576068858</v>
+        <v>0.376631045782902</v>
       </c>
       <c r="J5">
-        <v>0.5423873011998577</v>
+        <v>0.3928053077137587</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.05783366666666667</v>
+        <v>3.5543775</v>
       </c>
       <c r="N5">
-        <v>0.173501</v>
+        <v>7.108755</v>
       </c>
       <c r="O5">
-        <v>0.004043786190803798</v>
+        <v>0.9012988964740954</v>
       </c>
       <c r="P5">
-        <v>0.005997794829239271</v>
+        <v>0.8589111569626339</v>
       </c>
       <c r="Q5">
-        <v>0.3570896758641111</v>
+        <v>5.96962440295</v>
       </c>
       <c r="R5">
-        <v>3.213807082777</v>
+        <v>35.8177464177</v>
       </c>
       <c r="S5">
-        <v>0.001939415860825575</v>
+        <v>0.339457145942014</v>
       </c>
       <c r="T5">
-        <v>0.003253127750581549</v>
+        <v>0.3373848613094879</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>6.686821</v>
       </c>
       <c r="I6">
-        <v>0.1731349056329954</v>
+        <v>0.4998401096732527</v>
       </c>
       <c r="J6">
-        <v>0.1957994147469982</v>
+        <v>0.5213055330575571</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.175393</v>
+        <v>0.08108666666666665</v>
       </c>
       <c r="N6">
-        <v>0.526179</v>
+        <v>0.24326</v>
       </c>
       <c r="O6">
-        <v>0.01226364905153833</v>
+        <v>0.02056149724823249</v>
       </c>
       <c r="P6">
-        <v>0.01818959939974</v>
+        <v>0.02939174694341418</v>
       </c>
       <c r="Q6">
-        <v>0.3909405318843334</v>
+        <v>0.1807373418288889</v>
       </c>
       <c r="R6">
-        <v>3.518464786959</v>
+        <v>1.62663607646</v>
       </c>
       <c r="S6">
-        <v>0.002123265721254262</v>
+        <v>0.01027746103960281</v>
       </c>
       <c r="T6">
-        <v>0.003561512916951443</v>
+        <v>0.01532208030782935</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>6.686821</v>
       </c>
       <c r="I7">
-        <v>0.1731349056329954</v>
+        <v>0.4998401096732527</v>
       </c>
       <c r="J7">
-        <v>0.1957994147469982</v>
+        <v>0.5213055330575571</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,10 +871,10 @@
         <v>0.271551</v>
       </c>
       <c r="O7">
-        <v>0.006329036627448615</v>
+        <v>0.02295278771378271</v>
       </c>
       <c r="P7">
-        <v>0.009387307183674752</v>
+        <v>0.03280999043916413</v>
       </c>
       <c r="Q7">
         <v>0.2017569921523334</v>
@@ -883,10 +883,10 @@
         <v>1.815812929371</v>
       </c>
       <c r="S7">
-        <v>0.001095777159241087</v>
+        <v>0.01147272392816403</v>
       </c>
       <c r="T7">
-        <v>0.001838029252613809</v>
+        <v>0.01710402955550181</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +900,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,40 +915,40 @@
         <v>6.686821</v>
       </c>
       <c r="I8">
-        <v>0.1731349056329954</v>
+        <v>0.4998401096732527</v>
       </c>
       <c r="J8">
-        <v>0.1957994147469982</v>
+        <v>0.5213055330575571</v>
       </c>
       <c r="K8">
         <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>13.978117</v>
+        <v>0.2176356666666667</v>
       </c>
       <c r="N8">
-        <v>27.956234</v>
+        <v>0.652907</v>
       </c>
       <c r="O8">
-        <v>0.9773635281302092</v>
+        <v>0.05518681856388939</v>
       </c>
       <c r="P8">
-        <v>0.9664252985873458</v>
+        <v>0.07888710565478799</v>
       </c>
       <c r="Q8">
-        <v>31.15638876535234</v>
+        <v>0.4850969154052223</v>
       </c>
       <c r="R8">
-        <v>186.938332592114</v>
+        <v>4.365872238647</v>
       </c>
       <c r="S8">
-        <v>0.1692157422119552</v>
+        <v>0.02758458544349237</v>
       </c>
       <c r="T8">
-        <v>0.1892255078600953</v>
+        <v>0.04112428466473708</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,7 +962,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,40 +977,40 @@
         <v>6.686821</v>
       </c>
       <c r="I9">
-        <v>0.1731349056329954</v>
+        <v>0.4998401096732527</v>
       </c>
       <c r="J9">
-        <v>0.1957994147469982</v>
+        <v>0.5213055330575571</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.05783366666666667</v>
+        <v>3.5543775</v>
       </c>
       <c r="N9">
-        <v>0.173501</v>
+        <v>7.108755</v>
       </c>
       <c r="O9">
-        <v>0.004043786190803798</v>
+        <v>0.9012988964740954</v>
       </c>
       <c r="P9">
-        <v>0.005997794829239271</v>
+        <v>0.8589111569626339</v>
       </c>
       <c r="Q9">
-        <v>0.1289077922578889</v>
+        <v>7.922495369642501</v>
       </c>
       <c r="R9">
-        <v>1.160170130321</v>
+        <v>47.53497221785501</v>
       </c>
       <c r="S9">
-        <v>0.0007001205405448254</v>
+        <v>0.4505053392619935</v>
       </c>
       <c r="T9">
-        <v>0.001174364717337622</v>
+        <v>0.4477551385294889</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.470643</v>
+        <v>0.550853</v>
       </c>
       <c r="H10">
-        <v>8.941286</v>
+        <v>1.101706</v>
       </c>
       <c r="I10">
-        <v>0.3472611367601188</v>
+        <v>0.1235288445438454</v>
       </c>
       <c r="J10">
-        <v>0.2618132840531441</v>
+        <v>0.08588915922868416</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.175393</v>
+        <v>0.08108666666666665</v>
       </c>
       <c r="N10">
-        <v>0.526179</v>
+        <v>0.24326</v>
       </c>
       <c r="O10">
-        <v>0.01226364905153833</v>
+        <v>0.02056149724823249</v>
       </c>
       <c r="P10">
-        <v>0.01818959939974</v>
+        <v>0.02939174694341418</v>
       </c>
       <c r="Q10">
-        <v>0.784119487699</v>
+        <v>0.04466683359333333</v>
       </c>
       <c r="R10">
-        <v>4.704716926193999</v>
+        <v>0.26800100156</v>
       </c>
       <c r="S10">
-        <v>0.004258688710464352</v>
+        <v>0.002539937997165616</v>
       </c>
       <c r="T10">
-        <v>0.004762278754457028</v>
+        <v>0.002524432433232091</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.470643</v>
+        <v>0.550853</v>
       </c>
       <c r="H11">
-        <v>8.941286</v>
+        <v>1.101706</v>
       </c>
       <c r="I11">
-        <v>0.3472611367601188</v>
+        <v>0.1235288445438454</v>
       </c>
       <c r="J11">
-        <v>0.2618132840531441</v>
+        <v>0.08588915922868416</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,22 +1119,22 @@
         <v>0.271551</v>
       </c>
       <c r="O11">
-        <v>0.006329036627448615</v>
+        <v>0.02295278771378271</v>
       </c>
       <c r="P11">
-        <v>0.009387307183674752</v>
+        <v>0.03280999043916413</v>
       </c>
       <c r="Q11">
-        <v>0.404669192431</v>
+        <v>0.049861561001</v>
       </c>
       <c r="R11">
-        <v>2.428015154586</v>
+        <v>0.299169366006</v>
       </c>
       <c r="S11">
-        <v>0.002197828453844235</v>
+        <v>0.002835331345343748</v>
       </c>
       <c r="T11">
-        <v>0.002457721722173558</v>
+        <v>0.002818022493120973</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,7 +1148,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1157,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.470643</v>
+        <v>0.550853</v>
       </c>
       <c r="H12">
-        <v>8.941286</v>
+        <v>1.101706</v>
       </c>
       <c r="I12">
-        <v>0.3472611367601188</v>
+        <v>0.1235288445438454</v>
       </c>
       <c r="J12">
-        <v>0.2618132840531441</v>
+        <v>0.08588915922868416</v>
       </c>
       <c r="K12">
         <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>13.978117</v>
+        <v>0.2176356666666667</v>
       </c>
       <c r="N12">
-        <v>27.956234</v>
+        <v>0.652907</v>
       </c>
       <c r="O12">
-        <v>0.9773635281302092</v>
+        <v>0.05518681856388939</v>
       </c>
       <c r="P12">
-        <v>0.9664252985873458</v>
+        <v>0.07888710565478799</v>
       </c>
       <c r="Q12">
-        <v>62.491170919231</v>
+        <v>0.1198852598903333</v>
       </c>
       <c r="R12">
-        <v>249.964683676924</v>
+        <v>0.7193115593420001</v>
       </c>
       <c r="S12">
-        <v>0.3394003698063768</v>
+        <v>0.006817163931248094</v>
       </c>
       <c r="T12">
-        <v>0.2530229812151933</v>
+        <v>0.006775547178674116</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,7 +1210,7 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.470643</v>
+        <v>0.550853</v>
       </c>
       <c r="H13">
-        <v>8.941286</v>
+        <v>1.101706</v>
       </c>
       <c r="I13">
-        <v>0.3472611367601188</v>
+        <v>0.1235288445438454</v>
       </c>
       <c r="J13">
-        <v>0.2618132840531441</v>
+        <v>0.08588915922868416</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.05783366666666667</v>
+        <v>3.5543775</v>
       </c>
       <c r="N13">
-        <v>0.173501</v>
+        <v>7.108755</v>
       </c>
       <c r="O13">
-        <v>0.004043786190803798</v>
+        <v>0.9012988964740954</v>
       </c>
       <c r="P13">
-        <v>0.005997794829239271</v>
+        <v>0.8589111569626339</v>
       </c>
       <c r="Q13">
-        <v>0.2585536770476666</v>
+        <v>1.9579395090075</v>
       </c>
       <c r="R13">
-        <v>1.551322062286</v>
+        <v>7.831758036030001</v>
       </c>
       <c r="S13">
-        <v>0.001404249789433397</v>
+        <v>0.1113364112700879</v>
       </c>
       <c r="T13">
-        <v>0.0015703023613201</v>
+        <v>0.07377115712365699</v>
       </c>
     </row>
   </sheetData>
